--- a/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
+++ b/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C4" s="60" t="n"/>
       <c r="D4" s="91" t="n">
-        <v>45890.6369445918</v>
+        <v>45891.32774271401</v>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="16" t="inlineStr">

--- a/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
+++ b/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
@@ -1648,7 +1648,7 @@
       <c r="C2" s="57" t="n"/>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>I.7.4</t>
+          <t>PCCTV (Process-CCTVСистем процесног видео-надзора (софтверско- хардверски систем) на линијском делу гасовода</t>
         </is>
       </c>
       <c r="E2" s="10" t="n"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C4" s="60" t="n"/>
       <c r="D4" s="91" t="n">
-        <v>45891.32774271401</v>
+        <v>45894.42482809449</v>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="16" t="inlineStr">

--- a/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
+++ b/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C4" s="60" t="n"/>
       <c r="D4" s="91" t="n">
-        <v>45894.42482809449</v>
+        <v>45894.55979671177</v>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="16" t="inlineStr">

--- a/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
+++ b/test/CT-DR-B-LP-BVS13-I.7.4-00-1G-20250815-00_CMM.xlsx
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C4" s="60" t="n"/>
       <c r="D4" s="91" t="n">
-        <v>45894.55979671177</v>
+        <v>45894.56616526555</v>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="16" t="inlineStr">
